--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/10/seed1/result_data_RandomForest.xlsx
@@ -502,10 +502,10 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.25160000000001</v>
+        <v>-14.3013</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.783900000000001</v>
+        <v>-7.631299999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.242699999999996</v>
+        <v>-8.074499999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.7215</v>
+        <v>-11.7982</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.2921</v>
+        <v>-8.392999999999995</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.00910000000001</v>
+        <v>-12.06870000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.720100000000004</v>
+        <v>-8.567100000000009</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
